--- a/src/secure-part/보안근무 명단(2022년 9월) .xlsx
+++ b/src/secure-part/보안근무 명단(2022년 9월) .xlsx
@@ -1,14 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:r="http://purl.oclc.org/ooxml/officeDocument/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10" conformance="strict">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25629"/>
+<workbook xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:r="http://purl.oclc.org/ooxml/officeDocument/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15" conformance="strict">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
   <workbookPr dateCompatibility="0" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl$\Ubuntu\home\akswnd98\Desktop\auto-kingic\src\secure-part\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\seongbuk\Desktop\auto-kingic\src\secure-part\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:40009_{5F9865E9-E2B6-453A-975B-8A7CAC87BA05}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="3"/>
   </bookViews>
@@ -20,13 +19,13 @@
     <sheet name="Sheet1" sheetId="8" r:id="rId5"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'10월'!$A$1:$J$41</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'10월'!$A$1:$J$42</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'11월'!$A$1:$J$41</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">'12월'!$A$1:$J$41</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">'12월'!$A$1:$J$42</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">보안!$A$1:$J$41</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="1">'10월'!$B$3:$F$38</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="1">'10월'!$B$3:$F$39</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="2">'11월'!$B$3:$F$38</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="3">'12월'!$B$3:$F$38</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="3">'12월'!$B$3:$F$39</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="0">보안!$B$3:$F$38</definedName>
   </definedNames>
   <calcPr calcId="125725"/>
@@ -34,7 +33,7 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
       <x14:workbookPr/>
     </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+    <ext xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
         <xcalcf:feature name="microsoft.com:FV"/>
@@ -361,7 +360,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
-    <numFmt numFmtId="176" formatCode="mm&quot;월&quot;\ dd&quot;일&quot;"/>
+    <numFmt numFmtId="164" formatCode="mm&quot;월&quot;\ dd&quot;일&quot;"/>
   </numFmts>
   <fonts count="11">
     <font>
@@ -409,7 +408,7 @@
     <font>
       <b/>
       <sz val="12"/>
-      <name val="맑은 고딕"/>
+      <name val="Calibri"/>
       <family val="3"/>
       <charset val="129"/>
       <scheme val="minor"/>
@@ -418,7 +417,7 @@
       <b/>
       <sz val="12"/>
       <color rgb="FFFF0000"/>
-      <name val="맑은 고딕"/>
+      <name val="Calibri"/>
       <family val="3"/>
       <charset val="129"/>
       <scheme val="minor"/>
@@ -427,7 +426,7 @@
       <b/>
       <sz val="12"/>
       <color theme="4" tint="-0.249977111117893"/>
-      <name val="맑은 고딕"/>
+      <name val="Calibri"/>
       <family val="3"/>
       <charset val="129"/>
       <scheme val="minor"/>
@@ -436,7 +435,7 @@
       <b/>
       <sz val="12"/>
       <color theme="1"/>
-      <name val="맑은 고딕"/>
+      <name val="Calibri"/>
       <family val="3"/>
       <charset val="129"/>
       <scheme val="minor"/>
@@ -445,7 +444,7 @@
       <b/>
       <sz val="12"/>
       <color rgb="FFC00000"/>
-      <name val="맑은 고딕"/>
+      <name val="Calibri"/>
       <family val="3"/>
       <charset val="129"/>
       <scheme val="minor"/>
@@ -639,7 +638,7 @@
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -655,7 +654,7 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="6" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -667,13 +666,13 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="176" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1229,23 +1228,6 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -1281,23 +1263,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -2303,10 +2268,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:r="http://purl.oclc.org/ooxml/officeDocument/relationships" xmlns:v="urn:schemas-microsoft-com:vml" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J39"/>
+  <dimension ref="A1:J40"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="O16" sqref="O16"/>
+    <sheetView topLeftCell="A22" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D30" sqref="D30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -3004,49 +2969,45 @@
     </row>
     <row r="32" spans="1:10" s="15" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="A32" s="4"/>
-      <c r="B32" s="22">
-        <v>30</v>
-      </c>
-      <c r="C32" s="23" t="s">
-        <v>84</v>
-      </c>
-      <c r="D32" s="22" t="s">
-        <v>35</v>
-      </c>
-      <c r="E32" s="32" t="s">
-        <v>17</v>
-      </c>
-      <c r="F32" s="34" t="s">
-        <v>13</v>
-      </c>
+      <c r="B32" s="22"/>
+      <c r="C32" s="23"/>
+      <c r="D32" s="22"/>
+      <c r="E32" s="32"/>
+      <c r="F32" s="34"/>
       <c r="H32" s="18"/>
       <c r="I32" s="18"/>
       <c r="J32" s="18"/>
     </row>
-    <row r="33" spans="1:10" s="7" customFormat="1" ht="27" customHeight="1" thickBot="1">
-      <c r="A33" s="6"/>
-      <c r="B33" s="37" t="s">
-        <v>14</v>
-      </c>
-      <c r="C33" s="37"/>
-      <c r="D33" s="37"/>
-      <c r="E33" s="37"/>
-      <c r="F33" s="37"/>
-      <c r="G33" s="18"/>
+    <row r="33" spans="1:10" s="15" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="A33" s="4"/>
+      <c r="B33" s="22">
+        <v>30</v>
+      </c>
+      <c r="C33" s="23" t="s">
+        <v>84</v>
+      </c>
+      <c r="D33" s="22" t="s">
+        <v>35</v>
+      </c>
+      <c r="E33" s="32" t="s">
+        <v>17</v>
+      </c>
+      <c r="F33" s="34" t="s">
+        <v>13</v>
+      </c>
       <c r="H33" s="18"/>
       <c r="I33" s="18"/>
       <c r="J33" s="18"/>
     </row>
-    <row r="34" spans="1:10" ht="20.100000000000001" customHeight="1" thickBot="1">
-      <c r="B34" s="25" t="s">
-        <v>5</v>
-      </c>
-      <c r="C34" s="25" t="s">
-        <v>6</v>
-      </c>
-      <c r="D34" s="26"/>
-      <c r="E34" s="27"/>
-      <c r="F34" s="28"/>
+    <row r="34" spans="1:10" s="7" customFormat="1" ht="27" customHeight="1" thickBot="1">
+      <c r="A34" s="6"/>
+      <c r="B34" s="37" t="s">
+        <v>14</v>
+      </c>
+      <c r="C34" s="37"/>
+      <c r="D34" s="37"/>
+      <c r="E34" s="37"/>
+      <c r="F34" s="37"/>
       <c r="G34" s="18"/>
       <c r="H34" s="18"/>
       <c r="I34" s="18"/>
@@ -3054,14 +3015,14 @@
     </row>
     <row r="35" spans="1:10" ht="20.100000000000001" customHeight="1" thickBot="1">
       <c r="B35" s="25" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C35" s="25" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="D35" s="26"/>
-      <c r="E35" s="29"/>
-      <c r="F35" s="30"/>
+      <c r="E35" s="27"/>
+      <c r="F35" s="28"/>
       <c r="G35" s="18"/>
       <c r="H35" s="18"/>
       <c r="I35" s="18"/>
@@ -3069,10 +3030,10 @@
     </row>
     <row r="36" spans="1:10" ht="20.100000000000001" customHeight="1" thickBot="1">
       <c r="B36" s="25" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C36" s="25" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="D36" s="26"/>
       <c r="E36" s="29"/>
@@ -3084,10 +3045,10 @@
     </row>
     <row r="37" spans="1:10" ht="20.100000000000001" customHeight="1" thickBot="1">
       <c r="B37" s="25" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C37" s="25" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="D37" s="26"/>
       <c r="E37" s="29"/>
@@ -3099,28 +3060,43 @@
     </row>
     <row r="38" spans="1:10" ht="20.100000000000001" customHeight="1" thickBot="1">
       <c r="B38" s="25" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C38" s="25" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="D38" s="26"/>
-      <c r="E38" s="31"/>
+      <c r="E38" s="29"/>
       <c r="F38" s="30"/>
       <c r="G38" s="18"/>
       <c r="H38" s="18"/>
       <c r="I38" s="18"/>
       <c r="J38" s="18"/>
     </row>
-    <row r="39" spans="1:10">
+    <row r="39" spans="1:10" ht="20.100000000000001" customHeight="1" thickBot="1">
+      <c r="B39" s="25" t="s">
+        <v>12</v>
+      </c>
+      <c r="C39" s="25" t="s">
+        <v>13</v>
+      </c>
+      <c r="D39" s="26"/>
+      <c r="E39" s="31"/>
+      <c r="F39" s="30"/>
       <c r="G39" s="18"/>
       <c r="H39" s="18"/>
       <c r="I39" s="18"/>
       <c r="J39" s="18"/>
     </row>
+    <row r="40" spans="1:10">
+      <c r="G40" s="18"/>
+      <c r="H40" s="18"/>
+      <c r="I40" s="18"/>
+      <c r="J40" s="18"/>
+    </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="B33:F33"/>
+    <mergeCell ref="B34:F34"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.35433070866141736" right="0.19685039370078741" top="0.62992125984251968" bottom="0.15748031496062992" header="0.19685039370078741" footer="0.15748031496062992"/>
@@ -3961,10 +3937,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:r="http://purl.oclc.org/ooxml/officeDocument/relationships" xmlns:v="urn:schemas-microsoft-com:vml" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J39"/>
+  <dimension ref="A1:J40"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="R16" sqref="R16"/>
+    <sheetView tabSelected="1" topLeftCell="A22" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E28" sqref="E28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -4662,49 +4638,45 @@
     </row>
     <row r="32" spans="1:10" s="15" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="A32" s="4"/>
-      <c r="B32" s="22">
-        <v>30</v>
-      </c>
-      <c r="C32" s="23" t="s">
-        <v>84</v>
-      </c>
-      <c r="D32" s="22" t="s">
-        <v>35</v>
-      </c>
-      <c r="E32" s="32" t="s">
-        <v>17</v>
-      </c>
-      <c r="F32" s="34" t="s">
-        <v>13</v>
-      </c>
+      <c r="B32" s="22"/>
+      <c r="C32" s="23"/>
+      <c r="D32" s="22"/>
+      <c r="E32" s="32"/>
+      <c r="F32" s="34"/>
       <c r="H32" s="18"/>
       <c r="I32" s="18"/>
       <c r="J32" s="18"/>
     </row>
-    <row r="33" spans="1:10" s="7" customFormat="1" ht="27" customHeight="1" thickBot="1">
-      <c r="A33" s="6"/>
-      <c r="B33" s="37" t="s">
-        <v>14</v>
-      </c>
-      <c r="C33" s="37"/>
-      <c r="D33" s="37"/>
-      <c r="E33" s="37"/>
-      <c r="F33" s="37"/>
-      <c r="G33" s="18"/>
+    <row r="33" spans="1:10" s="15" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="A33" s="4"/>
+      <c r="B33" s="22">
+        <v>30</v>
+      </c>
+      <c r="C33" s="23" t="s">
+        <v>84</v>
+      </c>
+      <c r="D33" s="22" t="s">
+        <v>35</v>
+      </c>
+      <c r="E33" s="32" t="s">
+        <v>17</v>
+      </c>
+      <c r="F33" s="34" t="s">
+        <v>13</v>
+      </c>
       <c r="H33" s="18"/>
       <c r="I33" s="18"/>
       <c r="J33" s="18"/>
     </row>
-    <row r="34" spans="1:10" ht="20.100000000000001" customHeight="1" thickBot="1">
-      <c r="B34" s="25" t="s">
-        <v>5</v>
-      </c>
-      <c r="C34" s="25" t="s">
-        <v>6</v>
-      </c>
-      <c r="D34" s="26"/>
-      <c r="E34" s="27"/>
-      <c r="F34" s="28"/>
+    <row r="34" spans="1:10" s="7" customFormat="1" ht="27" customHeight="1" thickBot="1">
+      <c r="A34" s="6"/>
+      <c r="B34" s="37" t="s">
+        <v>14</v>
+      </c>
+      <c r="C34" s="37"/>
+      <c r="D34" s="37"/>
+      <c r="E34" s="37"/>
+      <c r="F34" s="37"/>
       <c r="G34" s="18"/>
       <c r="H34" s="18"/>
       <c r="I34" s="18"/>
@@ -4712,14 +4684,14 @@
     </row>
     <row r="35" spans="1:10" ht="20.100000000000001" customHeight="1" thickBot="1">
       <c r="B35" s="25" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C35" s="25" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="D35" s="26"/>
-      <c r="E35" s="29"/>
-      <c r="F35" s="30"/>
+      <c r="E35" s="27"/>
+      <c r="F35" s="28"/>
       <c r="G35" s="18"/>
       <c r="H35" s="18"/>
       <c r="I35" s="18"/>
@@ -4727,10 +4699,10 @@
     </row>
     <row r="36" spans="1:10" ht="20.100000000000001" customHeight="1" thickBot="1">
       <c r="B36" s="25" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C36" s="25" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="D36" s="26"/>
       <c r="E36" s="29"/>
@@ -4742,10 +4714,10 @@
     </row>
     <row r="37" spans="1:10" ht="20.100000000000001" customHeight="1" thickBot="1">
       <c r="B37" s="25" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C37" s="25" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="D37" s="26"/>
       <c r="E37" s="29"/>
@@ -4757,28 +4729,43 @@
     </row>
     <row r="38" spans="1:10" ht="20.100000000000001" customHeight="1" thickBot="1">
       <c r="B38" s="25" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C38" s="25" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="D38" s="26"/>
-      <c r="E38" s="31"/>
+      <c r="E38" s="29"/>
       <c r="F38" s="30"/>
       <c r="G38" s="18"/>
       <c r="H38" s="18"/>
       <c r="I38" s="18"/>
       <c r="J38" s="18"/>
     </row>
-    <row r="39" spans="1:10">
+    <row r="39" spans="1:10" ht="20.100000000000001" customHeight="1" thickBot="1">
+      <c r="B39" s="25" t="s">
+        <v>12</v>
+      </c>
+      <c r="C39" s="25" t="s">
+        <v>13</v>
+      </c>
+      <c r="D39" s="26"/>
+      <c r="E39" s="31"/>
+      <c r="F39" s="30"/>
       <c r="G39" s="18"/>
       <c r="H39" s="18"/>
       <c r="I39" s="18"/>
       <c r="J39" s="18"/>
     </row>
+    <row r="40" spans="1:10">
+      <c r="G40" s="18"/>
+      <c r="H40" s="18"/>
+      <c r="I40" s="18"/>
+      <c r="J40" s="18"/>
+    </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="B33:F33"/>
+    <mergeCell ref="B34:F34"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.35433070866141736" right="0.19685039370078741" top="0.62992125984251968" bottom="0.15748031496062992" header="0.19685039370078741" footer="0.15748031496062992"/>
